--- a/note2/코드정의서_통합.xlsx
+++ b/note2/코드정의서_통합.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\datastudy\teamproject3\note2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3226AA66-6642-4758-8FBE-9B26FABFD625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8140E76-F23C-4E52-B0A1-DFB6D8DAD732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Django" sheetId="3" r:id="rId1"/>
@@ -301,13 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>urlpatterns = [
-    path('',include('project.urls')),
-    ...
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>project
 (장고 앱)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,44 +368,6 @@
   </si>
   <si>
     <t>&lt;nav class="navbar navbar-default top-navbar" role="navigation"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">메뉴 모양 변경
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.HTML 연결
-&lt;href="#"&gt; 링크 연결 없음
-2.클릭 효과
-&lt;'active-menu'&gt; 클릭 시 강조 효과
-3.이모티콘 변경
-&lt;i class="fas fa-map-marked-alt"&gt;
-4.이름 변경
-&lt;a&gt; &lt;/a&gt; 내부 변경을 통한 명칭변경</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;ul class="nav" id="main-menu"&gt;
-    &lt;li&gt;
-		    &lt;a href="#" class="waves-effect waves-dark"&gt;&lt;i class="fas fa-map-marked-alt"&gt;&lt;/i&gt; 수소충전소 추천입지&lt;/a&gt;
-    &lt;/li&gt;
-			&lt;ul class="nav nav-second-level"&gt;
-            &lt;li&gt;
-                &lt;a href="recommend.html" class="active-menu waves-effect waves-dark"&gt;&lt;i class="fas fa-gas-pump"&gt;&lt;/i&gt; 추천입지&lt;/a&gt;
-            &lt;/li&gt;
-			&lt;/ul&gt;
-&lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -503,19 +458,6 @@
   </si>
   <si>
     <t>project&gt;views.py 에 있는 함수와 url사이트명 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>urlpatterns=[
-    path('hydrogencar.html',views.chart),
-    path('profile.html',views.empty),
-    path('home.html',views.form),
-    path('',views.form),
-    path('recommend.html',views.index),
-    path('location.html',views.tab_panel),
-    path('news.html',views.news),
-    path('seoul.html',views.ui_elements),
-]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -561,12 +503,71 @@
     return render(request, 'project/table.html',{'news' : news})</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>app_name = 'main'
+urlpatterns=[
+    path('hydrogencar',views.chart,name='car'),
+    path('profile',views.empty,name='profile'),
+    path('home',views.form,name='home'),
+    path('recommend',views.index,name='recommend'),
+    path('location',views.tab_panel,name='location'),
+    path('news',views.news,name='news'),
+    path('seoul',views.ui_elements,name='seoul'),
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">메뉴 모양 변경
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.HTML 연결
+ href="{% url 'main:recommend' %}"
+2.클릭 효과
+&lt;'active-menu'&gt; 클릭 시 강조 효과
+3.이모티콘 변경
+&lt;i class="fas fa-map-marked-alt"&gt;
+4.이름 변경
+&lt;a&gt; &lt;/a&gt; 내부 변경을 통한 명칭변경</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ul class="nav" id="main-menu"&gt;
+    &lt;li&gt;
+		    &lt;a href="{% url 'main:recommend' %}" class="waves-effect waves-dark"&gt;&lt;i class="fas fa-map-marked-alt"&gt;&lt;/i&gt; 수소충전소 추천입지&lt;/a&gt;
+    &lt;/li&gt;
+			&lt;ul class="nav nav-second-level"&gt;
+            &lt;li&gt;
+                &lt;a href="{% url 'main:seoul' %}" class="active-menu waves-effect waves-dark"&gt;&lt;i class="fas fa-book"&gt;&lt;/i&gt; 서울시 현황&lt;/a&gt;
+            &lt;/li&gt;
+			&lt;/ul&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urlpatterns = [
+    path('',include('project.urls')),
+    path('', RedirectView.as_view(url='home', permanent=False)),
+    ...
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -679,17 +680,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -731,6 +721,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -753,9 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -848,7 +838,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>7086883</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>515044</xdr:rowOff>
+      <xdr:rowOff>300731</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1259,11 +1249,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E206F021-D84F-405E-B73A-051A490A247F}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
@@ -1273,7 +1263,7 @@
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="31.5" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -1290,14 +1280,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" ht="66">
+      <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -1307,30 +1297,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15" t="s">
+    <row r="3" spans="1:5" ht="82.5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
+    <row r="4" spans="1:5" ht="66">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="14"/>
+    <row r="5" spans="1:5" ht="82.5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
@@ -1338,8 +1328,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:5" ht="82.5">
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1350,165 +1340,165 @@
         <v>32</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="99">
+      <c r="A7" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="99" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="47.25" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="33">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="9" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="181.5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="66">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="5" t="s">
+    <row r="14" spans="1:5" ht="99">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="99" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="5" t="s">
+    <row r="16" spans="1:5" ht="181.5">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="165" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:5" ht="181.5">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
+    <row r="18" spans="1:5" ht="409.5">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1534,11 +1524,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="D3" zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -1546,7 +1536,7 @@
     <col min="4" max="4" width="217.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.45" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -1560,8 +1550,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:7" ht="408.6" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1575,28 +1565,28 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="382.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:7" ht="382.15" customHeight="1">
+      <c r="A3" s="14"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="310.89999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:7" ht="310.89999999999998" customHeight="1">
+      <c r="A4" s="15"/>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" ht="402" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" ht="402" customHeight="1">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1609,33 +1599,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:7" ht="409.15" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="136.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+    <row r="7" spans="1:7" ht="136.9" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A5:A6"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
